--- a/RESULTS_IEEE30_ClassifiersTest.xlsx
+++ b/RESULTS_IEEE30_ClassifiersTest.xlsx
@@ -1,43 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jacob\DL_FDI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
-    <sheet name="Training Time" sheetId="2" r:id="rId2"/>
+    <sheet name="DCT" sheetId="1" r:id="rId1"/>
+    <sheet name="GNB" sheetId="2" r:id="rId2"/>
+    <sheet name="KNN" sheetId="3" r:id="rId3"/>
+    <sheet name="SVM_L" sheetId="4" r:id="rId4"/>
+    <sheet name="SVM-R" sheetId="5" r:id="rId5"/>
+    <sheet name="Training Time" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Sparsity</t>
   </si>
   <si>
-    <t>Decision Tree</t>
+    <t>Accuracy</t>
   </si>
   <si>
-    <t>Naive Bayesian</t>
+    <t>F1 score</t>
   </si>
   <si>
-    <t>KNN</t>
+    <t>Precision</t>
   </si>
   <si>
-    <t>SVM-L</t>
+    <t>Recall</t>
   </si>
   <si>
-    <t>SVM-R</t>
+    <t>False Positive Rate</t>
   </si>
   <si>
     <t>Model</t>
@@ -49,14 +48,23 @@
     <t>DCT</t>
   </si>
   <si>
+    <t>KNN</t>
+  </si>
+  <si>
     <t>NB</t>
+  </si>
+  <si>
+    <t>SVM-L</t>
+  </si>
+  <si>
+    <t>SVM-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +127,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -173,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,10 +205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,18 +414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -455,22 +449,22 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.84792396198099051</v>
+        <v>0.52</v>
       </c>
       <c r="D2">
-        <v>0.86393196598299149</v>
+        <v>0.6673596673596673</v>
       </c>
       <c r="E2">
-        <v>0.50275137568784389</v>
+        <v>0.5106044538706257</v>
       </c>
       <c r="F2">
-        <v>0.5722861430715358</v>
+        <v>0.963</v>
       </c>
       <c r="G2">
-        <v>0.58929464732366188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -478,22 +472,22 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.84192096048024012</v>
+        <v>0.7544999999999999</v>
       </c>
       <c r="D3">
-        <v>0.9309654827413707</v>
+        <v>0.7995100040832992</v>
       </c>
       <c r="E3">
-        <v>0.50275137568784389</v>
+        <v>0.6756383712905452</v>
       </c>
       <c r="F3">
-        <v>0.96248124062031015</v>
+        <v>0.979</v>
       </c>
       <c r="G3">
-        <v>0.90345172586293143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -501,22 +495,22 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0.59179589794897447</v>
+        <v>0.5355</v>
       </c>
       <c r="D4">
-        <v>0.92596298149074541</v>
+        <v>0.681084792310333</v>
       </c>
       <c r="E4">
-        <v>0.50275137568784389</v>
+        <v>0.5185572399372713</v>
       </c>
       <c r="F4">
-        <v>0.98799399699849921</v>
+        <v>0.992</v>
       </c>
       <c r="G4">
-        <v>0.92196098049024511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -524,22 +518,22 @@
         <v>0.4</v>
       </c>
       <c r="C5">
-        <v>0.52226113056528267</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="D5">
-        <v>0.9294647323661831</v>
+        <v>0.6653266331658292</v>
       </c>
       <c r="E5">
-        <v>0.503751875937969</v>
+        <v>0.5002518891687657</v>
       </c>
       <c r="F5">
-        <v>0.99049524762381191</v>
+        <v>0.993</v>
       </c>
       <c r="G5">
-        <v>0.96198099049524766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -547,22 +541,22 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.70535267633816912</v>
+        <v>0.523</v>
       </c>
       <c r="D6">
-        <v>0.88294147073536766</v>
+        <v>0.6761710794297353</v>
       </c>
       <c r="E6">
-        <v>0.52526263131565787</v>
+        <v>0.5118191161356629</v>
       </c>
       <c r="F6">
-        <v>0.50425212606303149</v>
+        <v>0.996</v>
       </c>
       <c r="G6">
-        <v>0.99799899949974991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -570,45 +564,45 @@
         <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.95797898949474736</v>
+        <v>0.5365</v>
       </c>
       <c r="D7">
-        <v>0.9224612306153076</v>
+        <v>0.6822077476859787</v>
       </c>
       <c r="E7">
-        <v>0.52026013006503247</v>
+        <v>0.5190401669274909</v>
       </c>
       <c r="F7">
-        <v>0.9994997498749375</v>
+        <v>0.995</v>
       </c>
       <c r="G7">
-        <v>0.9984992496248124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.96748374187093544</v>
+        <v>0.526</v>
       </c>
       <c r="D8">
-        <v>0.90795397698849423</v>
+        <v>0.6768916155419223</v>
       </c>
       <c r="E8">
-        <v>0.53676838419209605</v>
+        <v>0.5134436401240952</v>
       </c>
       <c r="F8">
-        <v>0.9984992496248124</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.9989994997498749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -616,22 +610,22 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>0.58529264632316158</v>
+        <v>0.5245</v>
       </c>
       <c r="D9">
-        <v>0.90545272636318164</v>
+        <v>0.6753158074428132</v>
       </c>
       <c r="E9">
-        <v>0.52876438219109556</v>
+        <v>0.5127008812856402</v>
       </c>
       <c r="F9">
-        <v>0.9994997498749375</v>
+        <v>0.989</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -639,22 +633,22 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>0.9279639819909955</v>
+        <v>0.7554999999999999</v>
       </c>
       <c r="D10">
-        <v>0.90695347673836924</v>
+        <v>0.8022644561261626</v>
       </c>
       <c r="E10">
-        <v>0.54277138569284644</v>
+        <v>0.6734555329260014</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -662,19 +656,19 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.89944972486243124</v>
+        <v>0.826</v>
       </c>
       <c r="D11">
-        <v>0.71985992996498249</v>
+        <v>0.8484320557491288</v>
       </c>
       <c r="E11">
-        <v>0.54277138569284644</v>
+        <v>0.7515432098765432</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.322</v>
       </c>
     </row>
   </sheetData>
@@ -683,14 +677,1066 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.875</v>
+      </c>
+      <c r="D2">
+        <v>0.8701973001038422</v>
+      </c>
+      <c r="E2">
+        <v>0.9049676025917927</v>
+      </c>
+      <c r="F2">
+        <v>0.838</v>
+      </c>
+      <c r="G2">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.9315895372233401</v>
+      </c>
+      <c r="E3">
+        <v>0.9372469635627531</v>
+      </c>
+      <c r="F3">
+        <v>0.926</v>
+      </c>
+      <c r="G3">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.9105</v>
+      </c>
+      <c r="D4">
+        <v>0.9166278528178854</v>
+      </c>
+      <c r="E4">
+        <v>0.8578901482127289</v>
+      </c>
+      <c r="F4">
+        <v>0.984</v>
+      </c>
+      <c r="G4">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.9155</v>
+      </c>
+      <c r="D5">
+        <v>0.9209171736078615</v>
+      </c>
+      <c r="E5">
+        <v>0.8654353562005277</v>
+      </c>
+      <c r="F5">
+        <v>0.984</v>
+      </c>
+      <c r="G5">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.855</v>
+      </c>
+      <c r="D6">
+        <v>0.8733624454148472</v>
+      </c>
+      <c r="E6">
+        <v>0.7751937984496124</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.898</v>
+      </c>
+      <c r="D7">
+        <v>0.9073569482288828</v>
+      </c>
+      <c r="E7">
+        <v>0.8311148086522463</v>
+      </c>
+      <c r="F7">
+        <v>0.999</v>
+      </c>
+      <c r="G7">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.8907712884529648</v>
+      </c>
+      <c r="E8">
+        <v>0.8037007240547064</v>
+      </c>
+      <c r="F8">
+        <v>0.999</v>
+      </c>
+      <c r="G8">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.8907712884529648</v>
+      </c>
+      <c r="E9">
+        <v>0.8037007240547064</v>
+      </c>
+      <c r="F9">
+        <v>0.999</v>
+      </c>
+      <c r="G9">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.885</v>
+      </c>
+      <c r="D10">
+        <v>0.8964896489648966</v>
+      </c>
+      <c r="E10">
+        <v>0.8150572831423896</v>
+      </c>
+      <c r="F10">
+        <v>0.996</v>
+      </c>
+      <c r="G10">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.6825</v>
+      </c>
+      <c r="D11">
+        <v>0.7590132827324478</v>
+      </c>
+      <c r="E11">
+        <v>0.6116207951070336</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.503</v>
+      </c>
+      <c r="D2">
+        <v>0.01192842942345924</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.006</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.007960199004975124</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.004</v>
+      </c>
+      <c r="G3">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.007960199004975124</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>0.004</v>
+      </c>
+      <c r="G4">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.5034999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.01390268123138034</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.007</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5275</v>
+      </c>
+      <c r="D6">
+        <v>0.1042654028436019</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.055</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.5205</v>
+      </c>
+      <c r="D7">
+        <v>0.07877041306436119</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.041</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.541</v>
+      </c>
+      <c r="D8">
+        <v>0.1531365313653137</v>
+      </c>
+      <c r="E8">
+        <v>0.9880952380952381</v>
+      </c>
+      <c r="F8">
+        <v>0.083</v>
+      </c>
+      <c r="G8">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.533</v>
+      </c>
+      <c r="D9">
+        <v>0.123827392120075</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.066</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.547</v>
+      </c>
+      <c r="D10">
+        <v>0.174863387978142</v>
+      </c>
+      <c r="E10">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="F10">
+        <v>0.096</v>
+      </c>
+      <c r="G10">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.547</v>
+      </c>
+      <c r="D11">
+        <v>0.1718464351005484</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.094</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.5715</v>
+      </c>
+      <c r="D2">
+        <v>0.2502187226596675</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.143</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.9095</v>
+      </c>
+      <c r="D3">
+        <v>0.9004947773501923</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.819</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.965</v>
+      </c>
+      <c r="D4">
+        <v>0.9637305699481865</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.93</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.9905</v>
+      </c>
+      <c r="D5">
+        <v>0.9904088844018173</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.981</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.504</v>
+      </c>
+      <c r="D6">
+        <v>0.6684491978609626</v>
+      </c>
+      <c r="E6">
+        <v>0.5020080321285141</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.999</v>
+      </c>
+      <c r="D7">
+        <v>0.998998998998999</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.998</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.9705</v>
+      </c>
+      <c r="D8">
+        <v>0.9713453132588634</v>
+      </c>
+      <c r="E8">
+        <v>0.9442870632672332</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.9965122072745392</v>
+      </c>
+      <c r="E9">
+        <v>0.9930486593843099</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.6115</v>
+      </c>
+      <c r="D2">
+        <v>0.3646770237121831</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.223</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.89</v>
+      </c>
+      <c r="D3">
+        <v>0.8764044943820225</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.78</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.894</v>
+      </c>
+      <c r="D4">
+        <v>0.8814317673378076</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.788</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.9535</v>
+      </c>
+      <c r="D5">
+        <v>0.951232302045097</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.907</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.9974962443665497</v>
+      </c>
+      <c r="E6">
+        <v>0.9989969909729187</v>
+      </c>
+      <c r="F6">
+        <v>0.996</v>
+      </c>
+      <c r="G6">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.9964877069744105</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.993</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.999</v>
+      </c>
+      <c r="D8">
+        <v>0.999</v>
+      </c>
+      <c r="E8">
+        <v>0.999</v>
+      </c>
+      <c r="F8">
+        <v>0.999</v>
+      </c>
+      <c r="G8">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.9995002498750626</v>
+      </c>
+      <c r="E9">
+        <v>0.999000999000999</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,7 +1744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -706,51 +1752,51 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>144.53884029388431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110.3627917766571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2.161481380462646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.582539796829224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.50026750564575195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3889617919921875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>331.13981056213379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188.9903824329376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>967.27555155754089</v>
+        <v>617.3970687389374</v>
       </c>
     </row>
   </sheetData>
